--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50837674494476</v>
+        <v>6.878910333333334</v>
       </c>
       <c r="N2">
-        <v>1.50837674494476</v>
+        <v>20.636731</v>
       </c>
       <c r="O2">
-        <v>0.0375481500589506</v>
+        <v>0.14811996585983</v>
       </c>
       <c r="P2">
-        <v>0.0375481500589506</v>
+        <v>0.14811996585983</v>
       </c>
       <c r="Q2">
-        <v>12.7989198894153</v>
+        <v>62.98990217997979</v>
       </c>
       <c r="R2">
-        <v>12.7989198894153</v>
+        <v>566.9091196198181</v>
       </c>
       <c r="S2">
-        <v>0.03633841136760558</v>
+        <v>0.1435977838749157</v>
       </c>
       <c r="T2">
-        <v>0.03633841136760558</v>
+        <v>0.1435977838749156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.9799199040412</v>
+        <v>22.22983366666666</v>
       </c>
       <c r="N3">
-        <v>21.9799199040412</v>
+        <v>66.68950099999999</v>
       </c>
       <c r="O3">
-        <v>0.5471480076888077</v>
+        <v>0.4786633411720634</v>
       </c>
       <c r="P3">
-        <v>0.5471480076888077</v>
+        <v>0.4786633411720634</v>
       </c>
       <c r="Q3">
-        <v>186.5046215876861</v>
+        <v>203.5576828724309</v>
       </c>
       <c r="R3">
-        <v>186.5046215876861</v>
+        <v>1832.019145851878</v>
       </c>
       <c r="S3">
-        <v>0.5295198125911983</v>
+        <v>0.464049492689708</v>
       </c>
       <c r="T3">
-        <v>0.5295198125911983</v>
+        <v>0.464049492689708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.6835025628689</v>
+        <v>17.33273533333334</v>
       </c>
       <c r="N4">
-        <v>16.6835025628689</v>
+        <v>51.998206</v>
       </c>
       <c r="O4">
-        <v>0.4153038422522417</v>
+        <v>0.3732166929681066</v>
       </c>
       <c r="P4">
-        <v>0.4153038422522417</v>
+        <v>0.3732166929681066</v>
       </c>
       <c r="Q4">
-        <v>141.5633153273216</v>
+        <v>158.7151525827632</v>
       </c>
       <c r="R4">
-        <v>141.5633153273216</v>
+        <v>1428.436373244868</v>
       </c>
       <c r="S4">
-        <v>0.4019234459917601</v>
+        <v>0.3618221871996753</v>
       </c>
       <c r="T4">
-        <v>0.4019234459917601</v>
+        <v>0.3618221871996753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H5">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.50837674494476</v>
+        <v>6.878910333333334</v>
       </c>
       <c r="N5">
-        <v>1.50837674494476</v>
+        <v>20.636731</v>
       </c>
       <c r="O5">
-        <v>0.0375481500589506</v>
+        <v>0.14811996585983</v>
       </c>
       <c r="P5">
-        <v>0.0375481500589506</v>
+        <v>0.14811996585983</v>
       </c>
       <c r="Q5">
-        <v>0.4260876580712041</v>
+        <v>1.983678251733667</v>
       </c>
       <c r="R5">
-        <v>0.4260876580712041</v>
+        <v>17.853104265603</v>
       </c>
       <c r="S5">
-        <v>0.001209738691345025</v>
+        <v>0.004522181984914348</v>
       </c>
       <c r="T5">
-        <v>0.001209738691345025</v>
+        <v>0.004522181984914348</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H6">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.9799199040412</v>
+        <v>22.22983366666666</v>
       </c>
       <c r="N6">
-        <v>21.9799199040412</v>
+        <v>66.68950099999999</v>
       </c>
       <c r="O6">
-        <v>0.5471480076888077</v>
+        <v>0.4786633411720634</v>
       </c>
       <c r="P6">
-        <v>0.5471480076888077</v>
+        <v>0.4786633411720634</v>
       </c>
       <c r="Q6">
-        <v>6.208908104618478</v>
+        <v>6.410439364290332</v>
       </c>
       <c r="R6">
-        <v>6.208908104618478</v>
+        <v>57.69395427861299</v>
       </c>
       <c r="S6">
-        <v>0.01762819509760942</v>
+        <v>0.01461384848235543</v>
       </c>
       <c r="T6">
-        <v>0.01762819509760942</v>
+        <v>0.01461384848235544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H7">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.6835025628689</v>
+        <v>17.33273533333334</v>
       </c>
       <c r="N7">
-        <v>16.6835025628689</v>
+        <v>51.998206</v>
       </c>
       <c r="O7">
-        <v>0.4153038422522417</v>
+        <v>0.3732166929681066</v>
       </c>
       <c r="P7">
-        <v>0.4153038422522417</v>
+        <v>0.3732166929681066</v>
       </c>
       <c r="Q7">
-        <v>4.712771235211581</v>
+        <v>4.998258220808667</v>
       </c>
       <c r="R7">
-        <v>4.712771235211581</v>
+        <v>44.984323987278</v>
       </c>
       <c r="S7">
-        <v>0.01338039626048168</v>
+        <v>0.01139450576843131</v>
       </c>
       <c r="T7">
-        <v>0.01338039626048168</v>
+        <v>0.01139450576843131</v>
       </c>
     </row>
   </sheetData>
